--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1682360.32440179</v>
+        <v>1627408.435117694</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013171</v>
+        <v>408938.3872013176</v>
       </c>
     </row>
     <row r="8">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>182.5676152432556</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>171.0350573078634</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>22.70042032133732</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>157.7635499103764</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706151</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.0001043529486</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>151.6473053916244</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>133.5547615347155</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>96.89972354804262</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>103.1100538602889</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
         <v>266.7045835770116</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8.916258666857143</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>77.52012824943829</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>326.2189840146605</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>417.3985592667085</v>
+        <v>255.0652318286014</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.329915919761908</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -1988,10 +1988,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>12.40511558138276</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>7.226885210985831</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>147.8573665543293</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>78.25021861831212</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>359.7827142947061</v>
@@ -2165,22 +2165,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>22.70042032133732</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>79.7584705712265</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>75.61813689207861</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>7.226885210985782</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>118.2869577273298</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>216.7588038831467</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.329915919761465</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>134.6060946080889</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
@@ -2459,13 +2459,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>158.6107100818746</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>7.226885210985831</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>417.3985592667085</v>
+        <v>85.27537324215697</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>180.7593146538045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.329915919761465</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.14557139814428</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,19 +2684,19 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.474840865017143</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
-        <v>73.35340349906454</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>337.7721596422273</v>
+        <v>61.65131909272031</v>
       </c>
       <c r="E29" t="n">
         <v>371.4789120616362</v>
@@ -2806,7 +2806,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>231.2737050161055</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2876,13 +2876,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>84.64996624109578</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>140.4182286814483</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
@@ -3009,7 +3009,7 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
-        <v>8.916258666857072</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>187.7486816173838</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>296.334634639874</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3.329915919761465</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>108.3989940131306</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>177.283526739121</v>
@@ -3173,7 +3173,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>75.61813689207857</v>
+        <v>119.920671635353</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>162.5582246269754</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>240.4660086744112</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,19 +3353,19 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>147.9743432409925</v>
+        <v>27.57432817881731</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,13 +3398,13 @@
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>180.1874478827692</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>123.1434003800101</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
-        <v>196.1958875566602</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>131.0497286114369</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>155.5247150903808</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
@@ -3602,7 +3602,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>139.3241889502359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>119.9206716353532</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3742,13 +3742,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>29.10242891642838</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.3396629278821</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.75847057122624</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
         <v>177.283526739121</v>
@@ -3884,10 +3884,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>39.1960505294216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,10 +3942,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>158.6107100818746</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>275.2069632223648</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>220.2533451494457</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>45.73193473310742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4112,7 +4112,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>209.0796373186121</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>13.4280598311639</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4179,13 +4179,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.00010435294848</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1610.227176505315</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.227176505315</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="D11" t="n">
-        <v>1610.227176505315</v>
+        <v>831.1605834891368</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.995952200632</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F11" t="n">
-        <v>827.7239828672855</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
-        <v>406.1092765372769</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
@@ -5056,7 +5056,7 @@
         <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P11" t="n">
         <v>1650.639799716936</v>
@@ -5068,25 +5068,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S11" t="n">
-        <v>1610.227176505315</v>
+        <v>1437.464492355958</v>
       </c>
       <c r="T11" t="n">
-        <v>1610.227176505315</v>
+        <v>1437.464492355958</v>
       </c>
       <c r="U11" t="n">
-        <v>1610.227176505315</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="V11" t="n">
-        <v>1610.227176505315</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="W11" t="n">
-        <v>1610.227176505315</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.227176505315</v>
+        <v>1184.903510136792</v>
       </c>
       <c r="Y11" t="n">
-        <v>1610.227176505315</v>
+        <v>1184.903510136792</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1069.118384851047</v>
+        <v>384.5070433604497</v>
       </c>
       <c r="C12" t="n">
-        <v>879.7061105840106</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443596</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M12" t="n">
-        <v>873.3058632974212</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N12" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O12" t="n">
         <v>1486.492278349808</v>
@@ -5144,28 +5144,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U12" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="V12" t="n">
-        <v>1715.732642722258</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="W12" t="n">
-        <v>1692.802925225958</v>
+        <v>722.4000174089771</v>
       </c>
       <c r="X12" t="n">
-        <v>1473.294930842654</v>
+        <v>563.0428962873848</v>
       </c>
       <c r="Y12" t="n">
-        <v>1247.654237777982</v>
+        <v>563.0428962873848</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="C13" t="n">
         <v>34.31465285444516</v>
@@ -5220,31 +5220,31 @@
         <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809701</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651446</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T13" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.31465285444516</v>
+        <v>43.32097474015933</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>557.3318417915689</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="C14" t="n">
-        <v>557.3318417915689</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="D14" t="n">
-        <v>557.3318417915689</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E14" t="n">
-        <v>557.3318417915689</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F14" t="n">
-        <v>557.3318417915689</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602993</v>
       </c>
       <c r="K14" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292776</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O14" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716936</v>
+        <v>1650.639799716935</v>
       </c>
       <c r="Q14" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S14" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T14" t="n">
-        <v>1610.227176505315</v>
+        <v>1562.553546367082</v>
       </c>
       <c r="U14" t="n">
-        <v>1357.666194286149</v>
+        <v>1562.553546367082</v>
       </c>
       <c r="V14" t="n">
-        <v>1033.545200741551</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="W14" t="n">
-        <v>692.2356413215846</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="X14" t="n">
-        <v>557.3318417915689</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="Y14" t="n">
-        <v>557.3318417915689</v>
+        <v>1238.432552822484</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>718.4979635217912</v>
+        <v>251.6844975206131</v>
       </c>
       <c r="C15" t="n">
-        <v>529.0856892547549</v>
+        <v>251.6844975206131</v>
       </c>
       <c r="D15" t="n">
-        <v>368.3055730157866</v>
+        <v>251.6844975206131</v>
       </c>
       <c r="E15" t="n">
-        <v>194.7423691372011</v>
+        <v>251.6844975206131</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>251.6844975206131</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H15" t="n">
         <v>34.31465285444516</v>
@@ -5357,52 +5357,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025869</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K15" t="n">
-        <v>54.40930111025869</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L15" t="n">
-        <v>304.6946924676439</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M15" t="n">
-        <v>679.5863020207055</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N15" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O15" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q15" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T15" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U15" t="n">
-        <v>1715.732642722258</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V15" t="n">
-        <v>1611.581073166411</v>
+        <v>966.2317542382978</v>
       </c>
       <c r="W15" t="n">
-        <v>1342.182503896702</v>
+        <v>696.8331849685891</v>
       </c>
       <c r="X15" t="n">
-        <v>1122.674509513399</v>
+        <v>477.3251905852854</v>
       </c>
       <c r="Y15" t="n">
-        <v>897.0338164487264</v>
+        <v>251.6844975206131</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>334.8576753800221</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="C16" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>334.8576753800221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>256.5545155321046</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
         <v>34.31465285444516</v>
@@ -5448,40 +5448,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098956</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T16" t="n">
-        <v>334.8576753800221</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U16" t="n">
-        <v>334.8576753800221</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V16" t="n">
-        <v>334.8576753800221</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W16" t="n">
-        <v>334.8576753800221</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="X16" t="n">
-        <v>334.8576753800221</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="Y16" t="n">
-        <v>334.8576753800221</v>
+        <v>43.32097474015944</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722258</v>
+        <v>633.1403008047772</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.732642722258</v>
+        <v>633.1403008047772</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.732642722258</v>
+        <v>291.9563011661638</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>291.9563011661638</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>291.9563011661638</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602999</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K17" t="n">
         <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M17" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O17" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P17" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q17" t="n">
         <v>1715.732642722258</v>
@@ -5554,13 +5554,13 @@
         <v>1715.732642722258</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722258</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722258</v>
+        <v>1011.006200176326</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722258</v>
+        <v>1011.006200176326</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.31465285444516</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="C18" t="n">
-        <v>34.31465285444516</v>
+        <v>368.657972971999</v>
       </c>
       <c r="D18" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E18" t="n">
         <v>34.31465285444516</v>
@@ -5594,22 +5594,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L18" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186984</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P18" t="n">
         <v>1625.193464940061</v>
@@ -5618,28 +5618,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025987</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062328</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365241</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X18" t="n">
-        <v>263.3188973532204</v>
+        <v>558.0702472390352</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.6782042885481</v>
+        <v>558.0702472390352</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D19" t="n">
-        <v>1584.94215937206</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E19" t="n">
-        <v>1584.94215937206</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F19" t="n">
-        <v>1584.94215937206</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J19" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M19" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O19" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U19" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y19" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>221.6975439683318</v>
+        <v>966.1687217998785</v>
       </c>
       <c r="C20" t="n">
-        <v>221.6975439683318</v>
+        <v>966.1687217998785</v>
       </c>
       <c r="D20" t="n">
-        <v>221.6975439683318</v>
+        <v>966.1687217998785</v>
       </c>
       <c r="E20" t="n">
-        <v>221.6975439683318</v>
+        <v>590.9374974951955</v>
       </c>
       <c r="F20" t="n">
-        <v>221.6975439683318</v>
+        <v>183.6655281618486</v>
       </c>
       <c r="G20" t="n">
-        <v>221.6975439683318</v>
+        <v>183.6655281618486</v>
       </c>
       <c r="H20" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157783</v>
@@ -5785,19 +5785,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U20" t="n">
-        <v>1636.692017855276</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V20" t="n">
-        <v>1312.571024310678</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W20" t="n">
-        <v>971.2614648907116</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X20" t="n">
-        <v>607.8445817647458</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="Y20" t="n">
-        <v>221.6975439683318</v>
+        <v>966.1687217998785</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1069.118384851047</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7061105840106</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444516</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K21" t="n">
-        <v>195.4144734331679</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L21" t="n">
-        <v>478.319605488546</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M21" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N21" t="n">
-        <v>1256.444979541619</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O21" t="n">
-        <v>1569.578013588512</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P21" t="n">
         <v>1715.732642722258</v>
@@ -5855,28 +5855,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S21" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T21" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U21" t="n">
-        <v>1692.802925225958</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V21" t="n">
-        <v>1692.802925225958</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W21" t="n">
-        <v>1692.802925225958</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X21" t="n">
-        <v>1473.294930842654</v>
+        <v>402.2627800484165</v>
       </c>
       <c r="Y21" t="n">
-        <v>1247.654237777982</v>
+        <v>402.2627800484165</v>
       </c>
     </row>
     <row r="22">
@@ -5913,49 +5913,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L22" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V22" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W22" t="n">
-        <v>41.61453690594595</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444516</v>
+        <v>110.6966093110902</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>723.6918773253376</v>
+        <v>763.2888038067836</v>
       </c>
       <c r="C23" t="n">
-        <v>369.9489506776823</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D23" t="n">
-        <v>369.9489506776823</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G23" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H23" t="n">
         <v>34.31465285444516</v>
@@ -5992,22 +5992,22 @@
         <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
@@ -6016,25 +6016,25 @@
         <v>1610.227176505315</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1490.745401023164</v>
       </c>
       <c r="T23" t="n">
-        <v>1195.201146295157</v>
+        <v>1490.745401023164</v>
       </c>
       <c r="U23" t="n">
-        <v>942.6401640759908</v>
+        <v>1490.745401023164</v>
       </c>
       <c r="V23" t="n">
-        <v>723.6918773253376</v>
+        <v>1490.745401023164</v>
       </c>
       <c r="W23" t="n">
-        <v>723.6918773253376</v>
+        <v>1149.435841603198</v>
       </c>
       <c r="X23" t="n">
-        <v>723.6918773253376</v>
+        <v>1149.435841603198</v>
       </c>
       <c r="Y23" t="n">
-        <v>723.6918773253376</v>
+        <v>763.2888038067836</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34.31465285444516</v>
+        <v>397.290131000067</v>
       </c>
       <c r="C24" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D24" t="n">
-        <v>34.31465285444516</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E24" t="n">
         <v>34.31465285444516</v>
@@ -6068,52 +6068,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K24" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443595</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M24" t="n">
-        <v>873.305863297421</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N24" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O24" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P24" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1491.99311531119</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775051</v>
+        <v>1277.986822079125</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025982</v>
+        <v>1038.413696406672</v>
       </c>
       <c r="V24" t="n">
-        <v>752.2254610062323</v>
+        <v>795.3339783103057</v>
       </c>
       <c r="W24" t="n">
-        <v>482.8268917365236</v>
+        <v>795.3339783103057</v>
       </c>
       <c r="X24" t="n">
-        <v>263.31889735322</v>
+        <v>575.8259839270021</v>
       </c>
       <c r="Y24" t="n">
-        <v>37.67820428854765</v>
+        <v>575.8259839270021</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F25" t="n">
-        <v>1575.402458663221</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y25" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>831.1605834891368</v>
+        <v>836.866617446385</v>
       </c>
       <c r="C26" t="n">
-        <v>831.1605834891368</v>
+        <v>836.866617446385</v>
       </c>
       <c r="D26" t="n">
-        <v>831.1605834891368</v>
+        <v>495.6826178077716</v>
       </c>
       <c r="E26" t="n">
-        <v>455.9293591844538</v>
+        <v>120.4513935030886</v>
       </c>
       <c r="F26" t="n">
-        <v>455.9293591844538</v>
+        <v>120.4513935030886</v>
       </c>
       <c r="G26" t="n">
         <v>34.31465285444516</v>
@@ -6226,52 +6226,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K26" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L26" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292783</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U26" t="n">
-        <v>1715.732642722258</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V26" t="n">
-        <v>1391.61164917766</v>
+        <v>836.866617446385</v>
       </c>
       <c r="W26" t="n">
-        <v>1391.61164917766</v>
+        <v>836.866617446385</v>
       </c>
       <c r="X26" t="n">
-        <v>1391.61164917766</v>
+        <v>836.866617446385</v>
       </c>
       <c r="Y26" t="n">
-        <v>1209.026482860686</v>
+        <v>836.866617446385</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>34.31465285444516</v>
+        <v>761.1946089692956</v>
       </c>
       <c r="C27" t="n">
-        <v>34.31465285444516</v>
+        <v>571.7823347022593</v>
       </c>
       <c r="D27" t="n">
-        <v>34.31465285444516</v>
+        <v>571.7823347022593</v>
       </c>
       <c r="E27" t="n">
-        <v>34.31465285444516</v>
+        <v>398.2191308236737</v>
       </c>
       <c r="F27" t="n">
-        <v>34.31465285444516</v>
+        <v>237.7914145409178</v>
       </c>
       <c r="G27" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H27" t="n">
         <v>34.31465285444516</v>
@@ -6305,52 +6305,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K27" t="n">
-        <v>54.40930111025867</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L27" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5863020207054</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N27" t="n">
-        <v>1082.820066520716</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.95310056761</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775051</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U27" t="n">
-        <v>995.3051791025982</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="V27" t="n">
-        <v>752.2254610062323</v>
+        <v>1384.879149344207</v>
       </c>
       <c r="W27" t="n">
-        <v>482.8268917365236</v>
+        <v>1384.879149344207</v>
       </c>
       <c r="X27" t="n">
-        <v>263.31889735322</v>
+        <v>1165.371154960903</v>
       </c>
       <c r="Y27" t="n">
-        <v>37.67820428854765</v>
+        <v>939.7304618962307</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444516</v>
+        <v>36.81449211203824</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444516</v>
+        <v>36.81449211203824</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444516</v>
+        <v>36.81449211203824</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444516</v>
+        <v>36.81449211203824</v>
       </c>
       <c r="F28" t="n">
         <v>34.31465285444516</v>
@@ -6387,49 +6387,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.857675380022</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="R28" t="n">
-        <v>260.76332841127</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="S28" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="T28" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="U28" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="V28" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="W28" t="n">
-        <v>34.31465285444516</v>
+        <v>260.9755581809701</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444516</v>
+        <v>36.81449211203824</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444516</v>
+        <v>36.81449211203824</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1391.61164917766</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="C29" t="n">
-        <v>1391.61164917766</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="D29" t="n">
-        <v>1050.427649539046</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E29" t="n">
-        <v>675.1964252343633</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F29" t="n">
-        <v>267.9244559010164</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G29" t="n">
         <v>34.31465285444516</v>
@@ -6463,16 +6463,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K29" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
@@ -6481,7 +6481,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
@@ -6490,25 +6490,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U29" t="n">
-        <v>1715.732642722258</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="V29" t="n">
-        <v>1391.61164917766</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="W29" t="n">
-        <v>1391.61164917766</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="X29" t="n">
-        <v>1391.61164917766</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="Y29" t="n">
-        <v>1391.61164917766</v>
+        <v>1300.7066125121</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>643.5752636441825</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C30" t="n">
-        <v>454.1629893771462</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D30" t="n">
-        <v>293.382873138178</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E30" t="n">
-        <v>119.8196692595924</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F30" t="n">
         <v>34.31465285444516</v>
@@ -6542,25 +6542,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L30" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M30" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N30" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
@@ -6569,25 +6569,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S30" t="n">
-        <v>1536.658373288802</v>
+        <v>1573.896048094533</v>
       </c>
       <c r="T30" t="n">
-        <v>1536.658373288802</v>
+        <v>1359.889754862467</v>
       </c>
       <c r="U30" t="n">
-        <v>1536.658373288802</v>
+        <v>1359.889754862467</v>
       </c>
       <c r="V30" t="n">
-        <v>1536.658373288802</v>
+        <v>1116.810036766101</v>
       </c>
       <c r="W30" t="n">
-        <v>1267.259804019094</v>
+        <v>847.4114674963926</v>
       </c>
       <c r="X30" t="n">
-        <v>1047.75180963579</v>
+        <v>627.9034731130889</v>
       </c>
       <c r="Y30" t="n">
-        <v>822.1111165711177</v>
+        <v>402.2627800484165</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T31" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.195942082395</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1526.087509775406</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="C32" t="n">
-        <v>1172.34458312775</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="D32" t="n">
-        <v>831.1605834891368</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="E32" t="n">
-        <v>455.9293591844538</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="F32" t="n">
-        <v>455.9293591844538</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444516</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I32" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K32" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389719</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N32" t="n">
         <v>1186.279026157783</v>
@@ -6718,34 +6718,34 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S32" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T32" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U32" t="n">
-        <v>1715.732642722258</v>
+        <v>942.640164075991</v>
       </c>
       <c r="V32" t="n">
-        <v>1715.732642722258</v>
+        <v>942.640164075991</v>
       </c>
       <c r="W32" t="n">
-        <v>1715.732642722258</v>
+        <v>942.640164075991</v>
       </c>
       <c r="X32" t="n">
-        <v>1715.732642722258</v>
+        <v>942.640164075991</v>
       </c>
       <c r="Y32" t="n">
-        <v>1715.732642722258</v>
+        <v>643.3122502983405</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>34.31465285444516</v>
+        <v>344.9599739535374</v>
       </c>
       <c r="C33" t="n">
-        <v>34.31465285444516</v>
+        <v>344.9599739535374</v>
       </c>
       <c r="D33" t="n">
-        <v>34.31465285444516</v>
+        <v>344.9599739535374</v>
       </c>
       <c r="E33" t="n">
-        <v>34.31465285444516</v>
+        <v>344.9599739535374</v>
       </c>
       <c r="F33" t="n">
-        <v>34.31465285444516</v>
+        <v>344.9599739535374</v>
       </c>
       <c r="G33" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H33" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I33" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L33" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M33" t="n">
-        <v>679.5863020207054</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N33" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775051</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025982</v>
+        <v>1083.078954384284</v>
       </c>
       <c r="V33" t="n">
-        <v>752.2254610062323</v>
+        <v>839.9992362879184</v>
       </c>
       <c r="W33" t="n">
-        <v>482.8268917365236</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="X33" t="n">
-        <v>263.31889735322</v>
+        <v>570.6006670182097</v>
       </c>
       <c r="Y33" t="n">
-        <v>37.67820428854765</v>
+        <v>344.9599739535374</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.6966093110902</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="C34" t="n">
-        <v>110.6966093110902</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="D34" t="n">
-        <v>110.6966093110902</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="E34" t="n">
-        <v>110.6966093110902</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="F34" t="n">
         <v>34.31465285444516</v>
@@ -6861,49 +6861,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L34" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
         <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W34" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X34" t="n">
-        <v>110.6966093110902</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y34" t="n">
-        <v>110.6966093110902</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C35" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D35" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E35" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602988</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K35" t="n">
-        <v>253.897506719375</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L35" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M35" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292791</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R35" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S35" t="n">
-        <v>1413.548593210149</v>
+        <v>1413.54859321015</v>
       </c>
       <c r="T35" t="n">
-        <v>1195.201146295157</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="U35" t="n">
-        <v>942.6401640759908</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="V35" t="n">
-        <v>618.5191705313928</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="W35" t="n">
-        <v>277.2096111114262</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="X35" t="n">
-        <v>34.31465285444516</v>
+        <v>1249.348366314215</v>
       </c>
       <c r="Y35" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>599.4346583132609</v>
+        <v>263.3188973532209</v>
       </c>
       <c r="C36" t="n">
-        <v>599.4346583132609</v>
+        <v>263.3188973532209</v>
       </c>
       <c r="D36" t="n">
-        <v>599.4346583132609</v>
+        <v>263.3188973532209</v>
       </c>
       <c r="E36" t="n">
-        <v>425.8714544346753</v>
+        <v>263.3188973532209</v>
       </c>
       <c r="F36" t="n">
-        <v>265.4437381519194</v>
+        <v>263.3188973532209</v>
       </c>
       <c r="G36" t="n">
-        <v>115.9747045751594</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H36" t="n">
         <v>115.9747045751594</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J36" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944631</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L36" t="n">
-        <v>395.2338702498412</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M36" t="n">
-        <v>770.1254798029028</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1448.884598007117</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T36" t="n">
-        <v>1266.877074893208</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U36" t="n">
-        <v>1266.877074893208</v>
+        <v>995.3051791025991</v>
       </c>
       <c r="V36" t="n">
-        <v>1266.877074893208</v>
+        <v>752.2254610062332</v>
       </c>
       <c r="W36" t="n">
-        <v>997.4785056234996</v>
+        <v>482.8268917365245</v>
       </c>
       <c r="X36" t="n">
-        <v>777.9705112401959</v>
+        <v>263.3188973532209</v>
       </c>
       <c r="Y36" t="n">
-        <v>777.9705112401959</v>
+        <v>263.3188973532209</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="U37" t="n">
-        <v>1424.195942082395</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="V37" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>158.7019259655665</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>419.8752081669785</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C38" t="n">
-        <v>419.8752081669785</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D38" t="n">
-        <v>419.8752081669785</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E38" t="n">
-        <v>419.8752081669785</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F38" t="n">
-        <v>419.8752081669785</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
-        <v>419.8752081669785</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H38" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I38" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602988</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K38" t="n">
         <v>253.897506719375</v>
@@ -7183,16 +7183,16 @@
         <v>525.528369138972</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292778</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
@@ -7207,19 +7207,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U38" t="n">
-        <v>1463.171660503092</v>
+        <v>1583.359179478382</v>
       </c>
       <c r="V38" t="n">
-        <v>1139.050666958494</v>
+        <v>1583.359179478382</v>
       </c>
       <c r="W38" t="n">
-        <v>797.7411075385273</v>
+        <v>1583.359179478382</v>
       </c>
       <c r="X38" t="n">
-        <v>797.7411075385273</v>
+        <v>1219.942296352417</v>
       </c>
       <c r="Y38" t="n">
-        <v>797.7411075385273</v>
+        <v>833.7952585560026</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1069.118384851047</v>
+        <v>987.4583331303328</v>
       </c>
       <c r="C39" t="n">
-        <v>879.7061105840106</v>
+        <v>798.0460588632965</v>
       </c>
       <c r="D39" t="n">
-        <v>718.9259943450423</v>
+        <v>637.2659426243282</v>
       </c>
       <c r="E39" t="n">
-        <v>545.3627904664568</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F39" t="n">
-        <v>384.9350741837009</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G39" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025867</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K39" t="n">
         <v>215.5091216889814</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443595</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M39" t="n">
-        <v>873.305863297421</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N39" t="n">
         <v>1276.539627797432</v>
@@ -7283,22 +7283,22 @@
         <v>1627.958867440572</v>
       </c>
       <c r="T39" t="n">
-        <v>1627.958867440572</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U39" t="n">
-        <v>1388.385741768119</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="V39" t="n">
-        <v>1388.385741768119</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="W39" t="n">
-        <v>1388.385741768119</v>
+        <v>1144.554004938798</v>
       </c>
       <c r="X39" t="n">
-        <v>1388.385741768119</v>
+        <v>1144.554004938798</v>
       </c>
       <c r="Y39" t="n">
-        <v>1247.654237777982</v>
+        <v>1144.554004938798</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>334.857675380022</v>
+        <v>155.446644405307</v>
       </c>
       <c r="C40" t="n">
-        <v>166.7191087416661</v>
+        <v>155.446644405307</v>
       </c>
       <c r="D40" t="n">
-        <v>34.31465285444516</v>
+        <v>155.446644405307</v>
       </c>
       <c r="E40" t="n">
         <v>34.31465285444516</v>
@@ -7335,49 +7335,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>42.2304192451457</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L40" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O40" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1136.513548474061</v>
+        <v>846.2142393373523</v>
       </c>
       <c r="C41" t="n">
-        <v>782.7706218264057</v>
+        <v>846.2142393373523</v>
       </c>
       <c r="D41" t="n">
-        <v>441.5866221877922</v>
+        <v>846.2142393373523</v>
       </c>
       <c r="E41" t="n">
-        <v>441.5866221877922</v>
+        <v>470.9830150326693</v>
       </c>
       <c r="F41" t="n">
-        <v>34.31465285444516</v>
+        <v>63.71104569932231</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444516</v>
+        <v>63.71104569932231</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444516</v>
+        <v>63.71104569932231</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193755</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
         <v>1650.639799716936</v>
@@ -7435,28 +7435,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="X41" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="Y41" t="n">
-        <v>1514.37944784561</v>
+        <v>1224.080138708901</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>223.7269271214815</v>
+        <v>304.2910388095888</v>
       </c>
       <c r="C42" t="n">
-        <v>34.31465285444516</v>
+        <v>114.8787645425525</v>
       </c>
       <c r="D42" t="n">
-        <v>34.31465285444516</v>
+        <v>114.8787645425525</v>
       </c>
       <c r="E42" t="n">
-        <v>34.31465285444516</v>
+        <v>114.8787645425525</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444516</v>
+        <v>114.8787645425525</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444516</v>
+        <v>114.8787645425525</v>
       </c>
       <c r="H42" t="n">
-        <v>34.31465285444516</v>
+        <v>114.8787645425525</v>
       </c>
       <c r="I42" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443595</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M42" t="n">
-        <v>873.305863297421</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N42" t="n">
         <v>1173.359244302914</v>
@@ -7514,28 +7514,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T42" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U42" t="n">
-        <v>995.3051791025987</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V42" t="n">
-        <v>752.2254610062328</v>
+        <v>752.2254610062325</v>
       </c>
       <c r="W42" t="n">
-        <v>482.8268917365241</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="X42" t="n">
-        <v>263.3188973532204</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.7269271214815</v>
+        <v>482.8268917365239</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="C43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="D43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="E43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F43" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>84.81980876651434</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="V43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="W43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="X43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="Y43" t="n">
-        <v>84.81980876651434</v>
+        <v>174.6448369134822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>729.2415791407141</v>
+        <v>1141.188160055543</v>
       </c>
       <c r="C44" t="n">
-        <v>375.4986524930586</v>
+        <v>1141.188160055543</v>
       </c>
       <c r="D44" t="n">
-        <v>34.31465285444516</v>
+        <v>1141.188160055543</v>
       </c>
       <c r="E44" t="n">
-        <v>34.31465285444516</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F44" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7648,22 +7648,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887603044</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193756</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
         <v>1650.639799716936</v>
@@ -7675,25 +7675,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="X44" t="n">
-        <v>1493.254516308677</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="Y44" t="n">
-        <v>1107.107478512263</v>
+        <v>1519.054059427092</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>798.0460588632965</v>
+        <v>591.1286331109909</v>
       </c>
       <c r="C45" t="n">
-        <v>798.0460588632965</v>
+        <v>401.7163588439546</v>
       </c>
       <c r="D45" t="n">
-        <v>637.2659426243282</v>
+        <v>240.9362426049863</v>
       </c>
       <c r="E45" t="n">
-        <v>463.7027387457426</v>
+        <v>240.9362426049863</v>
       </c>
       <c r="F45" t="n">
-        <v>303.2750224629867</v>
+        <v>80.50852632223044</v>
       </c>
       <c r="G45" t="n">
-        <v>153.8059888862266</v>
+        <v>80.50852632223044</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444516</v>
+        <v>80.50852632223044</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K45" t="n">
-        <v>54.40930111025867</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L45" t="n">
-        <v>337.3144331656368</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M45" t="n">
-        <v>679.5863020207058</v>
+        <v>853.2112150416077</v>
       </c>
       <c r="N45" t="n">
-        <v>1082.820066520717</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O45" t="n">
-        <v>1395.953100567611</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
         <v>1448.884598007117</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>1023.686751927969</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V45" t="n">
-        <v>1023.686751927969</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="W45" t="n">
-        <v>1023.686751927969</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="X45" t="n">
-        <v>1023.686751927969</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="Y45" t="n">
-        <v>798.0460588632965</v>
+        <v>769.6644860379261</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444516</v>
+        <v>188.2085337126377</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444516</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F46" t="n">
         <v>34.31465285444516</v>
@@ -7809,49 +7809,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>262.1720788316463</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>260.97555818097</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>84.81980876651434</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444516</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K12" t="n">
         <v>171.373473584151</v>
@@ -8780,10 +8780,10 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>206.3912489842004</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>171.2977978017202</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9008,10 +9008,10 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>8.64638209049167</v>
+        <v>67.15086399372811</v>
       </c>
       <c r="L15" t="n">
-        <v>207.3553107283658</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
         <v>301.77688131</v>
@@ -9026,7 +9026,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9245,13 +9245,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>106.100556788065</v>
       </c>
       <c r="N18" t="n">
         <v>310.6138585746227</v>
@@ -9260,7 +9260,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504037</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9479,7 +9479,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
         <v>171.373473584151</v>
@@ -9488,7 +9488,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195777</v>
       </c>
       <c r="N21" t="n">
         <v>310.6138585746227</v>
@@ -9497,10 +9497,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>122.4388889890791</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9728,16 +9728,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>102.1412644882571</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9956,13 +9956,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>268.8276482817242</v>
+        <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -9971,10 +9971,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P27" t="n">
-        <v>206.3638740786793</v>
+        <v>102.1412644882571</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K30" t="n">
-        <v>8.64638209049167</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>173.4146410504033</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,16 +10427,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
-        <v>8.64638209049167</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>268.8276482817242</v>
+        <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10664,10 +10664,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>61.4093663997632</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>87.44848849455019</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526881</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131757</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10916,13 +10916,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O39" t="n">
-        <v>151.0001733008984</v>
+        <v>151.0001733008981</v>
       </c>
       <c r="P39" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11080,7 +11080,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>137.580113947618</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>206.3912489842007</v>
+        <v>226.6888734850216</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131757</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315044</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K44" t="n">
-        <v>210.0462273461148</v>
+        <v>210.0462273461145</v>
       </c>
       <c r="L44" t="n">
         <v>270.6444670286918</v>
@@ -11375,16 +11375,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K45" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M45" t="n">
-        <v>268.8276482817247</v>
+        <v>301.77688131</v>
       </c>
       <c r="N45" t="n">
         <v>310.6138585746227</v>
@@ -11393,10 +11393,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890784</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23260,7 +23260,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>337.7721596422273</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7103396017491</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>23.67674015435114</v>
       </c>
       <c r="T11" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23345,19 +23345,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>244.0041632556743</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>59.54936452909425</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
-        <v>166.4571809719723</v>
+        <v>157.5409223051153</v>
       </c>
       <c r="D13" t="n">
         <v>145.1826502507107</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>174.1840844483079</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23503,19 +23503,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>64.51666705421735</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>226.2279527599906</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>51.07461969294987</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>80.84345120350704</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>137.5388670551134</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>157.5409223051152</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -23670,13 +23670,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>82.56286578368645</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706151</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
         <v>174.3941919203111</v>
@@ -23709,7 +23709,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>45.25992804697569</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>162.3333274381071</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>382.2855674184499</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>173.4205784779038</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
@@ -23831,7 +23831,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.9077988580878</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23895,7 +23895,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
-        <v>15.70007173401473</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
         <v>141.676141212225</v>
@@ -23904,7 +23904,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
         <v>160.0829940331247</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23949,10 +23949,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
-        <v>245.1090151844499</v>
+        <v>237.8821299734641</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23977,19 +23977,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>184.4205882906753</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,13 +24025,13 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>171.7851537786624</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>214.4769740943911</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>137.5544438682441</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.6169206649681</v>
+        <v>101.9987837728895</v>
       </c>
       <c r="C22" t="n">
         <v>166.4571809719723</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24189,10 +24189,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6925701972567</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>217.1412728141684</v>
@@ -24214,7 +24214,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
@@ -24223,7 +24223,7 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>76.42483973488478</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>104.1209797260053</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>173.4205784779043</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -24305,7 +24305,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>42.67743213103211</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24347,13 +24347,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24375,10 +24375,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>9.444303701750666</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H25" t="n">
         <v>160.0829940331247</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24420,13 +24420,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224783</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W25" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>221.9194554082425</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>332.1231860245515</v>
       </c>
       <c r="H26" t="n">
         <v>332.2779548450047</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>201.5262527646454</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>173.4205784779043</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>64.8287718428482</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,19 +24572,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>136.4520413534295</v>
       </c>
       <c r="G28" t="n">
         <v>168.0550137836253</v>
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.0407884212465</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
         <v>221.0023972007068</v>
@@ -24666,7 +24666,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -24685,7 +24685,7 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>276.120840549507</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>186.1248542506031</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>332.2779548450047</v>
@@ -24730,16 +24730,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
         <v>337.8964638257669</v>
@@ -24764,13 +24764,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>74.17347287883256</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
@@ -24779,7 +24779,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>36.86529805767267</v>
       </c>
       <c r="T30" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
         <v>174.3941919203111</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>236.1927565175928</v>
+        <v>236.1927565175929</v>
       </c>
       <c r="W31" t="n">
         <v>290.3107070893353</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>186.3385587604496</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
@@ -24937,7 +24937,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24985,7 +24985,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>85.95093277857586</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>173.4205784779043</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -25010,13 +25010,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>39.57534922786188</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>166.4571809719723</v>
@@ -25086,7 +25086,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>63.30874532636808</v>
+        <v>19.0062105830936</v>
       </c>
       <c r="G34" t="n">
         <v>168.0550137836253</v>
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
         <v>174.3941919203111</v>
@@ -25140,7 +25140,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25165,10 +25165,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>53.60574781886635</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>119.3167056202949</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -25241,16 +25241,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>120.4000150621752</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,13 +25286,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>31.67878241697568</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>22.03924987070064</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>224.1841888012565</v>
@@ -25368,10 +25368,10 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
         <v>290.3107070893353</v>
@@ -25405,13 +25405,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>136.0820672883444</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>118.9856437855376</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>21.22577930728494</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,22 +25523,22 @@
         <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>84.06009718378971</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
-        <v>14.10223892236195</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>21.75546957687183</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -25572,7 +25572,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>156.4066332863194</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>194.7117974622146</v>
@@ -25696,7 +25696,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
-        <v>182.9459044905678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350706</v>
+        <v>1.084980632280804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.188235604604</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>168.0550137836253</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>24.58419038258738</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,10 +25830,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S43" t="n">
         <v>224.1841888012565</v>
@@ -25842,7 +25842,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6213336334641</v>
+        <v>130.0106235515895</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25867,19 +25867,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>96.27194883927137</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25915,7 +25915,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
@@ -25930,10 +25930,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>139.5293691452604</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350706</v>
+        <v>35.11151647039963</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>28.09775709711638</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26028,13 +26028,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D46" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>128.2480813810611</v>
       </c>
       <c r="F46" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>168.0550137836253</v>
@@ -26046,7 +26046,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,13 +26067,13 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S46" t="n">
-        <v>174.1840844483081</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
         <v>221.0023972007068</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>559657.7420711028</v>
+        <v>559657.7420711026</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>559657.7420711025</v>
+        <v>559657.7420711027</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559657.7420711025</v>
+        <v>559657.7420711026</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>559657.7420711026</v>
+        <v>559657.7420711027</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>559657.7420711027</v>
+        <v>559657.7420711028</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>559657.7420711027</v>
+        <v>559657.7420711028</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>617352.3966235217</v>
       </c>
       <c r="C2" t="n">
-        <v>617352.396623522</v>
+        <v>617352.3966235217</v>
       </c>
       <c r="D2" t="n">
-        <v>617352.3966235222</v>
+        <v>617352.3966235217</v>
       </c>
       <c r="E2" t="n">
         <v>350646.9751767691</v>
       </c>
       <c r="F2" t="n">
-        <v>350646.975176769</v>
+        <v>350646.9751767691</v>
       </c>
       <c r="G2" t="n">
         <v>350646.975176769</v>
       </c>
       <c r="H2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="I2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="J2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="K2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="L2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="M2" t="n">
+        <v>350646.9751767691</v>
+      </c>
+      <c r="N2" t="n">
         <v>350646.975176769</v>
-      </c>
-      <c r="I2" t="n">
-        <v>350646.975176769</v>
-      </c>
-      <c r="J2" t="n">
-        <v>350646.9751767689</v>
-      </c>
-      <c r="K2" t="n">
-        <v>350646.975176769</v>
-      </c>
-      <c r="L2" t="n">
-        <v>350646.975176769</v>
-      </c>
-      <c r="M2" t="n">
-        <v>350646.9751767688</v>
-      </c>
-      <c r="N2" t="n">
-        <v>350646.9751767689</v>
       </c>
       <c r="O2" t="n">
         <v>350646.9751767691</v>
       </c>
       <c r="P2" t="n">
-        <v>350646.975176769</v>
+        <v>350646.9751767692</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>414368.6261668352</v>
       </c>
       <c r="C4" t="n">
-        <v>414368.6261668352</v>
+        <v>414368.6261668353</v>
       </c>
       <c r="D4" t="n">
         <v>414368.6261668352</v>
@@ -26456,10 +26456,10 @@
         <v>34009.01571095565</v>
       </c>
       <c r="O4" t="n">
-        <v>34009.01571095566</v>
+        <v>34009.01571095565</v>
       </c>
       <c r="P4" t="n">
-        <v>34009.01571095566</v>
+        <v>34009.01571095565</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>36091.33751189046</v>
       </c>
       <c r="F5" t="n">
-        <v>36091.33751189046</v>
+        <v>36091.33751189045</v>
       </c>
       <c r="G5" t="n">
         <v>36091.33751189046</v>
@@ -26490,22 +26490,22 @@
         <v>36091.33751189046</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="M5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>169356.1704566865</v>
+        <v>169311.5066146346</v>
       </c>
       <c r="C6" t="n">
-        <v>169356.1704566869</v>
+        <v>169311.5066146345</v>
       </c>
       <c r="D6" t="n">
-        <v>169356.170456687</v>
+        <v>169311.5066146346</v>
       </c>
       <c r="E6" t="n">
-        <v>-216506.5298635695</v>
+        <v>-226076.3873287197</v>
       </c>
       <c r="F6" t="n">
-        <v>280546.6219539228</v>
+        <v>270976.7644887727</v>
       </c>
       <c r="G6" t="n">
-        <v>280546.6219539229</v>
+        <v>270976.7644887727</v>
       </c>
       <c r="H6" t="n">
-        <v>280546.6219539229</v>
+        <v>270976.7644887727</v>
       </c>
       <c r="I6" t="n">
-        <v>280546.6219539228</v>
+        <v>270976.7644887728</v>
       </c>
       <c r="J6" t="n">
-        <v>280546.6219539228</v>
+        <v>270976.7644887728</v>
       </c>
       <c r="K6" t="n">
-        <v>280546.6219539228</v>
+        <v>270976.7644887728</v>
       </c>
       <c r="L6" t="n">
-        <v>280546.6219539228</v>
+        <v>270976.7644887727</v>
       </c>
       <c r="M6" t="n">
-        <v>173654.7625796833</v>
+        <v>164084.9051145334</v>
       </c>
       <c r="N6" t="n">
-        <v>280546.6219539228</v>
+        <v>270976.7644887727</v>
       </c>
       <c r="O6" t="n">
-        <v>280546.621953923</v>
+        <v>270976.7644887728</v>
       </c>
       <c r="P6" t="n">
-        <v>280546.6219539229</v>
+        <v>270976.7644887728</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="G3" t="n">
         <v>459.2752909409236</v>
@@ -26773,13 +26773,13 @@
         <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409236</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>428.9331606805646</v>
       </c>
       <c r="F4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="G4" t="n">
         <v>428.9331606805646</v>
@@ -26810,28 +26810,28 @@
         <v>428.9331606805646</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="N4" t="n">
         <v>428.9331606805645</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805646</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805644</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32001,16 +32001,16 @@
         <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L14" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N14" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O14" t="n">
         <v>311.0863102573771</v>
@@ -32019,16 +32019,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R14" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T14" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993452</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433152</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I15" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357017</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L15" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N15" t="n">
         <v>256.9298629953381</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.3349152694313</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S15" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T15" t="n">
         <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196983</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315141</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I16" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368856</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32177,7 +32177,7 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207947</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R16" t="n">
         <v>37.2389440818657</v>
@@ -32189,7 +32189,7 @@
         <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,19 +32229,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
         <v>324.1998891675596</v>
@@ -32250,10 +32250,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O17" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
         <v>199.3831741692328</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
@@ -32326,10 +32326,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O18" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,13 +32338,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S18" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
         <v>0.06499178645390431</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32405,7 +32405,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,16 +32414,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
         <v>0.0451746187810745</v>
@@ -32466,19 +32466,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
         <v>324.1998891675596</v>
@@ -32487,10 +32487,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
         <v>199.3831741692328</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32563,10 +32563,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,13 +32575,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
         <v>0.06499178645390431</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H22" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
@@ -32642,7 +32642,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,16 +32651,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
         <v>0.0451746187810745</v>
@@ -32703,19 +32703,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
         <v>324.1998891675596</v>
@@ -32724,10 +32724,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
         <v>199.3831741692328</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
@@ -32800,10 +32800,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,13 +32812,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
         <v>0.06499178645390431</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,16 +32888,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
         <v>0.0451746187810745</v>
@@ -32940,19 +32940,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
         <v>324.1998891675596</v>
@@ -32961,10 +32961,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P26" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
         <v>199.3831741692328</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33037,10 +33037,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O27" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P27" t="n">
         <v>188.640826575339</v>
@@ -33049,13 +33049,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
         <v>0.06499178645390431</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
@@ -33116,7 +33116,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N28" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O28" t="n">
         <v>117.0624954680243</v>
@@ -33125,16 +33125,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
         <v>0.0451746187810745</v>
@@ -33177,19 +33177,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
         <v>324.1998891675596</v>
@@ -33198,10 +33198,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P29" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
         <v>199.3831741692328</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33274,10 +33274,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O30" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P30" t="n">
         <v>188.640826575339</v>
@@ -33286,13 +33286,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
         <v>0.06499178645390431</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
@@ -33353,7 +33353,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N31" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O31" t="n">
         <v>117.0624954680243</v>
@@ -33362,16 +33362,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
         <v>0.0451746187810745</v>
@@ -33414,19 +33414,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
         <v>324.1998891675596</v>
@@ -33435,10 +33435,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P32" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
         <v>199.3831741692328</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33511,10 +33511,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O33" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P33" t="n">
         <v>188.640826575339</v>
@@ -33523,13 +33523,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
         <v>0.06499178645390431</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
@@ -33590,7 +33590,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N34" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O34" t="n">
         <v>117.0624954680243</v>
@@ -33599,16 +33599,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
         <v>0.0451746187810745</v>
@@ -33651,19 +33651,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
         <v>324.1998891675596</v>
@@ -33672,10 +33672,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P35" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
         <v>199.3831741692328</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33748,10 +33748,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O36" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P36" t="n">
         <v>188.640826575339</v>
@@ -33760,13 +33760,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
         <v>0.06499178645390431</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
@@ -33827,7 +33827,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N37" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O37" t="n">
         <v>117.0624954680243</v>
@@ -33836,16 +33836,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
         <v>0.0451746187810745</v>
@@ -33888,43 +33888,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L38" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O38" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P38" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H39" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I39" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N39" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O39" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P39" t="n">
         <v>188.640826575339</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H40" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I40" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
@@ -34064,7 +34064,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N40" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O40" t="n">
         <v>117.0624954680243</v>
@@ -34073,19 +34073,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R40" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,43 +34125,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K41" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L41" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M41" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N41" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O41" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P41" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q41" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R41" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S41" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T41" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U41" t="n">
         <v>0.1477066262322567</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I42" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L42" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M42" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N42" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O42" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P42" t="n">
         <v>188.640826575339</v>
@@ -34234,16 +34234,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S42" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
         <v>123.1309525909486</v>
@@ -34301,7 +34301,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N43" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O43" t="n">
         <v>117.0624954680243</v>
@@ -34310,19 +34310,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R43" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,43 +34362,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K44" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L44" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M44" t="n">
-        <v>324.1998891675596</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N44" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O44" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P44" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q44" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R44" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S44" t="n">
-        <v>42.07330931584442</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T44" t="n">
-        <v>8.082321954146302</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U44" t="n">
         <v>0.1477066262322567</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I45" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L45" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M45" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N45" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O45" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P45" t="n">
         <v>188.640826575339</v>
@@ -34471,16 +34471,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R45" t="n">
-        <v>61.33491526943129</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S45" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06499178645390431</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340266</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
         <v>123.1309525909486</v>
@@ -34538,7 +34538,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N46" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O46" t="n">
         <v>117.0624954680243</v>
@@ -34547,19 +34547,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R46" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0451746187810745</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
@@ -35500,10 +35500,10 @@
         <v>378.678393487941</v>
       </c>
       <c r="N12" t="n">
-        <v>303.0842232378718</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O12" t="n">
-        <v>316.2959939867616</v>
+        <v>232.3710088971611</v>
       </c>
       <c r="P12" t="n">
         <v>231.5559236085354</v>
@@ -35658,7 +35658,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O14" t="n">
         <v>277.1250097811783</v>
@@ -35667,7 +35667,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002269</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082174</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>58.50448190323647</v>
       </c>
       <c r="L15" t="n">
-        <v>252.8135266236214</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
         <v>378.678393487941</v>
@@ -35740,13 +35740,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P15" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970261</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676517</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M16" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N16" t="n">
-        <v>82.2989092579312</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186797</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
         <v>334.4622543336424</v>
@@ -35898,13 +35898,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>183.002068966006</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802598</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151264</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,19 +36044,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M19" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P19" t="n">
         <v>19.62327613144092</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
         <v>334.4622543336424</v>
@@ -36135,13 +36135,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K21" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M21" t="n">
-        <v>378.6783934879409</v>
+        <v>274.4557838975187</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>147.6309385189352</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,19 +36281,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M22" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P22" t="n">
         <v>19.62327613144092</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
@@ -36372,13 +36372,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>127.3333140181132</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
         <v>19.62327613144092</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L26" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
         <v>334.4622543336424</v>
@@ -36609,13 +36609,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P26" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>345.7291604596652</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N27" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
-        <v>231.5559236085354</v>
+        <v>127.3333140181132</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,19 +36755,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
         <v>19.62327613144092</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
         <v>334.4622543336424</v>
@@ -36846,13 +36846,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P29" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L30" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M30" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>198.6066905802593</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,19 +36992,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
         <v>19.62327613144092</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
         <v>334.4622543336424</v>
@@ -37083,13 +37083,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P32" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L33" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M33" t="n">
-        <v>345.7291604596652</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N33" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O33" t="n">
         <v>316.2959939867616</v>
@@ -37168,7 +37168,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,19 +37229,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
         <v>19.62327613144092</v>
@@ -37305,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
         <v>334.4622543336424</v>
@@ -37320,13 +37320,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P35" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K36" t="n">
-        <v>78.80210640405852</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M36" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>407.306832828294</v>
+        <v>211.6305083063595</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37405,7 +37405,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
         <v>19.62327613144092</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O38" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P38" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,22 +37621,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M39" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
-        <v>212.0733843963393</v>
+        <v>212.073384396339</v>
       </c>
       <c r="P39" t="n">
         <v>231.5559236085354</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M40" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M41" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P41" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002249</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L42" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>303.084223237872</v>
+        <v>323.381847738693</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P42" t="n">
         <v>231.5559236085354</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119725</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286313</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
         <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P44" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7291604596656</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N45" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O45" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189345</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
-        <v>76.0091291269204</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793119</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144092</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
